--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="7100" windowWidth="28800" windowHeight="9940" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ATT" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -235,8 +235,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -263,9 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -284,18 +283,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -575,12 +583,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -614,10 +622,10 @@
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="26">
         <v>0.86</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="26">
         <v>0.78</v>
       </c>
       <c r="D3" s="11">
@@ -659,10 +667,10 @@
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="26">
         <v>0.31</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="26">
         <v>0.63</v>
       </c>
       <c r="D6" s="11">
@@ -674,10 +682,10 @@
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="26">
         <v>0.05</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="26">
         <v>0.26</v>
       </c>
       <c r="D7" s="11">
@@ -689,10 +697,10 @@
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="28">
         <v>0.16</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="28">
         <v>0.14000000000000001</v>
       </c>
       <c r="D8" s="11">
@@ -704,10 +712,10 @@
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="28">
         <v>0.15</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="28">
         <v>0.17</v>
       </c>
       <c r="D9" s="11">
@@ -719,10 +727,10 @@
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="28">
         <v>0.02</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="28">
         <v>0.01</v>
       </c>
       <c r="D10" s="11">
@@ -747,6 +755,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -755,12 +764,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -793,10 +802,10 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.79</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.84</v>
       </c>
       <c r="D3" s="1">
@@ -838,10 +847,10 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.6</v>
       </c>
       <c r="D6" s="1">
@@ -853,10 +862,10 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.09</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="D7" s="1">
@@ -934,7 +943,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,10 +982,10 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="30">
         <v>0.89</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="30">
         <v>0.94</v>
       </c>
       <c r="D3" s="1">
@@ -1018,10 +1027,10 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="30">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="30">
         <v>0.6</v>
       </c>
       <c r="D6" s="1">
@@ -1033,10 +1042,10 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="30">
         <v>0.11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="30">
         <v>0.37</v>
       </c>
       <c r="D7" s="1">
@@ -1114,7 +1123,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,10 +1162,10 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="30">
         <v>0.89</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="30">
         <v>0.83</v>
       </c>
       <c r="D3" s="1">
@@ -1198,10 +1207,10 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="30">
         <v>0.53</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="30">
         <v>0.7</v>
       </c>
       <c r="D6" s="1">
@@ -1213,10 +1222,10 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="30">
         <v>0.26</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="30">
         <v>0.48</v>
       </c>
       <c r="D7" s="1">
@@ -1294,7 +1303,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:D11"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1333,10 +1342,10 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="30">
         <v>0.72</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="30">
         <v>0.83</v>
       </c>
       <c r="D3" s="1">
@@ -1378,10 +1387,10 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="30">
         <v>0.71</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="30">
         <v>0.62</v>
       </c>
       <c r="D6" s="1">
@@ -1393,10 +1402,10 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="30">
         <v>0.22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="30">
         <v>0.21</v>
       </c>
       <c r="D7" s="1">
@@ -1474,7 +1483,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1513,10 +1522,10 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="30">
         <v>0.77</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="30">
         <v>0.9</v>
       </c>
       <c r="D3" s="1">
@@ -1558,10 +1567,10 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="30">
         <v>0.49</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="30">
         <v>0.46</v>
       </c>
       <c r="D6" s="1">
@@ -1573,10 +1582,10 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="30">
         <v>0.18</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="30">
         <v>0.12</v>
       </c>
       <c r="D7" s="1">
@@ -1654,7 +1663,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1693,10 +1702,10 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="30">
         <v>0.86</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="30">
         <v>0.91</v>
       </c>
       <c r="D3" s="1">
@@ -1738,10 +1747,10 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="30">
         <v>0.74</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="30">
         <v>0.83</v>
       </c>
       <c r="D6" s="1">
@@ -1753,10 +1762,10 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="30">
         <v>0.26</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="30">
         <v>0.56999999999999995</v>
       </c>
       <c r="D7" s="1">
@@ -1834,7 +1843,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,10 +1879,10 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="30">
         <v>0.78</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="30">
         <v>0.87</v>
       </c>
       <c r="D3" s="1">
@@ -1915,10 +1924,10 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="30">
         <v>0.71</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="30">
         <v>0.65</v>
       </c>
       <c r="D6" s="1">
@@ -1930,10 +1939,10 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="30">
         <v>0.27</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="30">
         <v>0.37</v>
       </c>
       <c r="D7" s="1">
@@ -2011,7 +2020,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2023,67 +2032,67 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
-      <c r="B1" s="16">
+      <c r="B1" s="29">
         <v>2000</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29">
         <v>2001</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <f>MIN(ATT!B2, CMU!B2, BBN!B2, SRI!B2, IBM!B2, MIT!B2, COL!B2, LUC!B2)</f>
         <v>59</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <f>MAX(ATT!B2, CMU!B2, BBN!B2, SRI!B2, IBM!B2, MIT!B2, COL!B2, LUC!B2)</f>
         <v>81</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <f>AVERAGE(ATT!B2, CMU!B2, BBN!B2, SRI!B2, IBM!B2, MIT!B2, COL!B2, LUC!B2)</f>
         <v>71.875</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <f>MIN(ATT!C2, CMU!C2, BBN!C2, SRI!C2, IBM!C2, MIT!C2, COL!C2, LUC!C2)</f>
         <v>126</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <f>MAX(ATT!C2, CMU!C2, BBN!C2, SRI!C2, IBM!C2, MIT!C2, COL!C2, LUC!C2)</f>
         <v>158</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f>AVERAGE(ATT!C2, CMU!C2, BBN!C2, SRI!C2, IBM!C2, MIT!C2, COL!C2, LUC!C2)</f>
         <v>143.5</v>
       </c>
@@ -2093,30 +2102,30 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="27">
         <f>MIN(ATT!B3, CMU!B3, BBN!B3, SRI!B3, IBM!B3, MIT!B3, COL!B3, LUC!B3)</f>
         <v>0.72</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="27">
         <f>MAX(ATT!B3, CMU!B3, BBN!B3, SRI!B3, IBM!B3, MIT!B3, COL!B3, LUC!B3)</f>
         <v>0.89</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="27">
         <f>AVERAGE(ATT!B3, CMU!B3, BBN!B3, SRI!B3, IBM!B3, MIT!B3, COL!B3, LUC!B3)</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="27">
         <f>MIN(ATT!C3, CMU!C3, BBN!C3, SRI!C3, IBM!C3, MIT!C3, COL!C3, LUC!C3)</f>
         <v>0.78</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="27">
         <f>MAX(ATT!C3, CMU!C3, BBN!C3, SRI!C3, IBM!C3, MIT!C3, COL!C3, LUC!C3)</f>
         <v>0.94</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="27">
         <f>AVERAGE(ATT!C3, CMU!C3, BBN!C3, SRI!C3, IBM!C3, MIT!C3, COL!C3, LUC!C3)</f>
         <v>0.86250000000000004</v>
       </c>
@@ -2126,30 +2135,30 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <f>MIN(ATT!B4, CMU!B4, BBN!B4, SRI!B4, IBM!B4, MIT!B4, COL!B4, LUC!B4)</f>
         <v>9.1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <f>MAX(ATT!B4, CMU!B4, BBN!B4, SRI!B4, IBM!B4, MIT!B4, COL!B4, LUC!B4)</f>
         <v>50.7</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <f>AVERAGE(ATT!B4, CMU!B4, BBN!B4, SRI!B4, IBM!B4, MIT!B4, COL!B4, LUC!B4)</f>
         <v>25.087499999999999</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <f>MIN(ATT!C4, CMU!C4, BBN!C4, SRI!C4, IBM!C4, MIT!C4, COL!C4, LUC!C4)</f>
         <v>14.1</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <f>MAX(ATT!C4, CMU!C4, BBN!C4, SRI!C4, IBM!C4, MIT!C4, COL!C4, LUC!C4)</f>
         <v>32.200000000000003</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <f>AVERAGE(ATT!C4, CMU!C4, BBN!C4, SRI!C4, IBM!C4, MIT!C4, COL!C4, LUC!C4)</f>
         <v>21.85</v>
       </c>
@@ -2159,30 +2168,30 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <f>MIN(ATT!B5, CMU!B5, BBN!B5, SRI!B5, IBM!B5, MIT!B5, COL!B5, LUC!B5)</f>
         <v>2.1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <f>MAX(ATT!B5, CMU!B5, BBN!B5, SRI!B5, IBM!B5, MIT!B5, COL!B5, LUC!B5)</f>
         <v>3.9</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <f>AVERAGE(ATT!B5, CMU!B5, BBN!B5, SRI!B5, IBM!B5, MIT!B5, COL!B5, LUC!B5)</f>
         <v>2.7374999999999998</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <f>MIN(ATT!C5, CMU!C5, BBN!C5, SRI!C5, IBM!C5, MIT!C5, COL!C5, LUC!C5)</f>
         <v>1.4</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <f>MAX(ATT!C5, CMU!C5, BBN!C5, SRI!C5, IBM!C5, MIT!C5, COL!C5, LUC!C5)</f>
         <v>4.2</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <f>AVERAGE(ATT!C5, CMU!C5, BBN!C5, SRI!C5, IBM!C5, MIT!C5, COL!C5, LUC!C5)</f>
         <v>2.4</v>
       </c>
@@ -2192,30 +2201,30 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="27">
         <f>MIN(ATT!B6, CMU!B6, BBN!B6, SRI!B6, IBM!B6, MIT!B6, COL!B6, LUC!B6)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="27">
         <f>MAX(ATT!B6, CMU!B6, BBN!B6, SRI!B6, IBM!B6, MIT!B6, COL!B6, LUC!B6)</f>
         <v>0.74</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="27">
         <f>AVERAGE(ATT!B6, CMU!B6, BBN!B6, SRI!B6, IBM!B6, MIT!B6, COL!B6, LUC!B6)</f>
         <v>0.50625000000000009</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="27">
         <f>MIN(ATT!C6, CMU!C6, BBN!C6, SRI!C6, IBM!C6, MIT!C6, COL!C6, LUC!C6)</f>
         <v>0.46</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="27">
         <f>MAX(ATT!C6, CMU!C6, BBN!C6, SRI!C6, IBM!C6, MIT!C6, COL!C6, LUC!C6)</f>
         <v>0.83</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="27">
         <f>AVERAGE(ATT!C6, CMU!C6, BBN!C6, SRI!C6, IBM!C6, MIT!C6, COL!C6, LUC!C6)</f>
         <v>0.63625000000000009</v>
       </c>
@@ -2225,30 +2234,30 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="27">
         <f>MIN(ATT!B7, CMU!B7, BBN!B7, SRI!B7, IBM!B7, MIT!B7, COL!B7, LUC!B7)</f>
         <v>0.05</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="27">
         <f>MAX(ATT!B7, CMU!B7, BBN!B7, SRI!B7, IBM!B7, MIT!B7, COL!B7, LUC!B7)</f>
         <v>0.27</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="27">
         <f>AVERAGE(ATT!B7, CMU!B7, BBN!B7, SRI!B7, IBM!B7, MIT!B7, COL!B7, LUC!B7)</f>
         <v>0.18</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="27">
         <f>MIN(ATT!C7, CMU!C7, BBN!C7, SRI!C7, IBM!C7, MIT!C7, COL!C7, LUC!C7)</f>
         <v>0.12</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="27">
         <f>MAX(ATT!C7, CMU!C7, BBN!C7, SRI!C7, IBM!C7, MIT!C7, COL!C7, LUC!C7)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="27">
         <f>AVERAGE(ATT!C7, CMU!C7, BBN!C7, SRI!C7, IBM!C7, MIT!C7, COL!C7, LUC!C7)</f>
         <v>0.315</v>
       </c>
@@ -2258,7 +2267,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="22">
@@ -2269,7 +2278,7 @@
         <f>MAX(ATT!B8, CMU!B8, BBN!B8, SRI!B8, IBM!B8, MIT!B8, COL!B8, LUC!B8)</f>
         <v>0.17</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <f>AVERAGE(ATT!B8, CMU!B8, BBN!B8, SRI!B8, IBM!B8, MIT!B8, COL!B8, LUC!B8)</f>
         <v>0.12000000000000002</v>
       </c>
@@ -2281,7 +2290,7 @@
         <f>MAX(ATT!C8, CMU!C8, BBN!C8, SRI!C8, IBM!C8, MIT!C8, COL!C8, LUC!C8)</f>
         <v>0.24</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <f>AVERAGE(ATT!C8, CMU!C8, BBN!C8, SRI!C8, IBM!C8, MIT!C8, COL!C8, LUC!C8)</f>
         <v>0.11750000000000001</v>
       </c>
@@ -2291,7 +2300,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="22">
@@ -2302,7 +2311,7 @@
         <f>MAX(ATT!B9, CMU!B9, BBN!B9, SRI!B9, IBM!B9, MIT!B9, COL!B9, LUC!B9)</f>
         <v>0.31</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <f>AVERAGE(ATT!B9, CMU!B9, BBN!B9, SRI!B9, IBM!B9, MIT!B9, COL!B9, LUC!B9)</f>
         <v>0.20375000000000001</v>
       </c>
@@ -2314,7 +2323,7 @@
         <f>MAX(ATT!C9, CMU!C9, BBN!C9, SRI!C9, IBM!C9, MIT!C9, COL!C9, LUC!C9)</f>
         <v>0.33</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <f>AVERAGE(ATT!C9, CMU!C9, BBN!C9, SRI!C9, IBM!C9, MIT!C9, COL!C9, LUC!C9)</f>
         <v>0.24124999999999999</v>
       </c>
@@ -2324,7 +2333,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="22">
@@ -2335,7 +2344,7 @@
         <f>MAX(ATT!B10, CMU!B10, BBN!B10, SRI!B10, IBM!B10, MIT!B10, COL!B10, LUC!B10)</f>
         <v>0.1</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <f>AVERAGE(ATT!B10, CMU!B10, BBN!B10, SRI!B10, IBM!B10, MIT!B10, COL!B10, LUC!B10)</f>
         <v>6.3750000000000001E-2</v>
       </c>
@@ -2347,7 +2356,7 @@
         <f>MAX(ATT!C10, CMU!C10, BBN!C10, SRI!C10, IBM!C10, MIT!C10, COL!C10, LUC!C10)</f>
         <v>0.13</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <f>AVERAGE(ATT!C10, CMU!C10, BBN!C10, SRI!C10, IBM!C10, MIT!C10, COL!C10, LUC!C10)</f>
         <v>6.8750000000000006E-2</v>
       </c>
@@ -2357,30 +2366,30 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <f>MIN(ATT!B11, CMU!B11, BBN!B11, SRI!B11, IBM!B11, MIT!B11, COL!B11, LUC!B11)</f>
         <v>16</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <f>MAX(ATT!B11, CMU!B11, BBN!B11, SRI!B11, IBM!B11, MIT!B11, COL!B11, LUC!B11)</f>
         <v>20</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <f>AVERAGE(ATT!B11, CMU!B11, BBN!B11, SRI!B11, IBM!B11, MIT!B11, COL!B11, LUC!B11)</f>
         <v>18.375</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <f>MIN(ATT!C11, CMU!C11, BBN!C11, SRI!C11, IBM!C11, MIT!C11, COL!C11, LUC!C11)</f>
         <v>20</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <f>MAX(ATT!C11, CMU!C11, BBN!C11, SRI!C11, IBM!C11, MIT!C11, COL!C11, LUC!C11)</f>
         <v>46</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <f>AVERAGE(ATT!C11, CMU!C11, BBN!C11, SRI!C11, IBM!C11, MIT!C11, COL!C11, LUC!C11)</f>
         <v>33.5</v>
       </c>
